--- a/side materials/Raw data wikipedia.xlsx
+++ b/side materials/Raw data wikipedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas_OLD/Documents/6. Mental/classical_music (git)/side materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA2601-3FCE-3F4C-9A22-1E39582247F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD48BF-1908-3644-AA54-6C01C6C3B610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="10" xr2:uid="{2B582EB1-C638-E845-9FA0-8D17060637D1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="6" xr2:uid="{2B582EB1-C638-E845-9FA0-8D17060637D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mendelssohn" sheetId="1" r:id="rId1"/>
@@ -15344,7 +15344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15359,8 +15359,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16672,7 +16670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337543F-B1D6-A049-82A2-1617615F386F}">
   <dimension ref="B2:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -16810,13 +16808,13 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="20">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="2">
         <v>1890</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -16825,10 +16823,10 @@
       <c r="F8" s="2" t="s">
         <v>2306</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="2" t="s">
         <v>2719</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="2" t="s">
         <v>2720</v>
       </c>
     </row>
@@ -16955,13 +16953,13 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" ht="20">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="2">
         <v>17</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="2">
         <v>1900</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -16970,10 +16968,10 @@
       <c r="F15" s="2" t="s">
         <v>2785</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" ht="20">
       <c r="B16" s="2" t="s">
@@ -17193,88 +17191,88 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" ht="20">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="2">
         <v>15</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="2">
         <v>1899</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2779</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="2" t="s">
         <v>2780</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="2" t="s">
         <v>2781</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="20">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="2">
         <v>18</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="2">
         <v>1900</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>2786</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" ht="20">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="2">
         <v>19</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="2">
         <v>1900</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>2787</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="2" t="s">
         <v>2788</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" ht="20">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="2">
         <v>20</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="2" t="s">
         <v>2789</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2790</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="4" t="s">
         <v>2791</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="2" t="s">
         <v>2792</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="2" t="s">
         <v>2793</v>
       </c>
     </row>
@@ -17296,13 +17294,13 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="20">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="2">
         <v>32</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="2" t="s">
         <v>2829</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -17311,10 +17309,10 @@
       <c r="F32" s="4" t="s">
         <v>2831</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="20">
       <c r="B33" s="2" t="s">
@@ -17507,13 +17505,13 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="20">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="2">
         <v>16</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="2" t="s">
         <v>2216</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -17522,8 +17520,8 @@
       <c r="F41" s="3" t="s">
         <v>2783</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">**Fairy Tale**, Op. 16  (1899–1900) </v>
@@ -17599,13 +17597,13 @@
       </c>
     </row>
     <row r="45" spans="2:9" ht="20">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="2">
         <v>29</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="2" t="s">
         <v>2818</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -17614,8 +17612,8 @@
       <c r="F45" s="3" t="s">
         <v>2820</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">**A Summer's Tale**, Op. 29  (1908–1909) </v>
@@ -17645,11 +17643,11 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="20">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>2837</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -17658,8 +17656,8 @@
       <c r="F47" s="4" t="s">
         <v>2839</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">**Cycle of Symphonic Poems from Czech History**,   (1915–1917) </v>
@@ -17842,11 +17840,11 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:9" ht="20">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>2692</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -17855,10 +17853,10 @@
       <c r="F56" s="7" t="s">
         <v>2872</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H56" s="14"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="2:9" ht="23">
       <c r="B57" s="2" t="s">
@@ -17937,11 +17935,11 @@
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:9" ht="20">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
         <v>1891</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -17950,10 +17948,10 @@
       <c r="F61" s="4" t="s">
         <v>2731</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H61" s="14"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:9" ht="20">
       <c r="B62" s="2" t="s">
@@ -17977,13 +17975,13 @@
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:9" ht="20">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="2">
         <v>7</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="2" t="s">
         <v>2742</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -17992,10 +17990,10 @@
       <c r="F63" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H63" s="14"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:9" ht="20">
       <c r="B64" s="2" t="s">
@@ -18036,13 +18034,13 @@
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" ht="20">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="2">
         <v>10</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="2">
         <v>1895</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -18051,10 +18049,10 @@
       <c r="F66" s="4" t="s">
         <v>2756</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H66" s="14"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" ht="20">
       <c r="B67" s="2" t="s">
@@ -18076,13 +18074,13 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" ht="20">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="2">
         <v>12</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="2" t="s">
         <v>1368</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -18091,10 +18089,10 @@
       <c r="F68" s="2" t="s">
         <v>2765</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H68" s="14"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:8" ht="20">
       <c r="B69" s="2" t="s">
@@ -18156,13 +18154,13 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="20">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="2">
         <v>21</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="2">
         <v>1900</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -18171,19 +18169,19 @@
       <c r="F72" s="2" t="s">
         <v>2795</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H72" s="14"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" ht="20">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="2" t="s">
         <v>2796</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="2">
         <v>1902</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -18192,19 +18190,19 @@
       <c r="F73" s="4" t="s">
         <v>1971</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" ht="20">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="2" t="s">
         <v>2798</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="2">
         <v>1902</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -18213,19 +18211,19 @@
       <c r="F74" s="4" t="s">
         <v>2800</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" ht="20">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="2">
         <v>28</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="2">
         <v>1907</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -18234,10 +18232,10 @@
       <c r="F75" s="3" t="s">
         <v>2817</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H75" s="14"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" ht="20">
       <c r="B76" s="2" t="s">
@@ -18259,13 +18257,13 @@
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" ht="20">
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="2">
         <v>30</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="2">
         <v>1909</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -18274,19 +18272,19 @@
       <c r="F77" s="3" t="s">
         <v>2824</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" ht="20">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="2">
         <v>33</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="2" t="s">
         <v>1967</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -18295,10 +18293,10 @@
       <c r="F78" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:8" ht="23">
       <c r="B79" s="2" t="s">
@@ -18322,10 +18320,10 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" ht="20">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
         <v>2865</v>
       </c>
@@ -18335,7 +18333,7 @@
       <c r="F80" s="4" t="s">
         <v>2867</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="2" t="s">
         <v>2288</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -29404,8 +29402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584F8B63-9F3B-6C46-ACD5-2BA11A9B60BC}">
   <dimension ref="A1:J396"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83:J93"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30073,7 +30071,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="20">
+    <row r="33" spans="1:10" ht="20">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -30086,7 +30084,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="16" customHeight="1">
+    <row r="34" spans="1:10" ht="16" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -30099,7 +30097,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="20">
+    <row r="35" spans="1:10" ht="20">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -30112,7 +30110,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="20">
+    <row r="36" spans="1:10" ht="20">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -30125,7 +30123,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16" customHeight="1">
+    <row r="37" spans="1:10" ht="16" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -30138,7 +30136,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="20">
+    <row r="38" spans="1:10" ht="20">
       <c r="A38" s="3" t="s">
         <v>1252</v>
       </c>
@@ -30163,7 +30161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20">
+    <row r="39" spans="1:10" ht="20">
       <c r="A39" s="3" t="s">
         <v>935</v>
       </c>
@@ -30185,8 +30183,12 @@
       <c r="I39" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="20">
+      <c r="J39" t="str">
+        <f t="shared" ref="J39:J41" si="0">"**"&amp;A39&amp;"**, "&amp;IF(ISBLANK(E39),"","Op. "&amp;E39&amp;", ")&amp;"FS "&amp;D39&amp;" ("&amp;F39&amp;")"</f>
+        <v>**Violin Concerto**, Op. 33, FS 61 (1911)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20">
       <c r="A40" s="3" t="s">
         <v>1243</v>
       </c>
@@ -30206,8 +30208,12 @@
       <c r="I40" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="20">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>**Flute Concerto**, FS 119 (1926)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20">
       <c r="A41" s="3" t="s">
         <v>1244</v>
       </c>
@@ -30229,8 +30235,12 @@
       <c r="I41" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="16" customHeight="1">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>**Clarinet Concerto**, Op. 57, FS 129 (1928)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -30243,7 +30253,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="20">
+    <row r="43" spans="1:10" ht="20">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -30256,7 +30266,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="20">
+    <row r="44" spans="1:10" ht="20">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -30269,7 +30279,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="20">
+    <row r="45" spans="1:10" ht="20">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -30282,7 +30292,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16" customHeight="1">
+    <row r="46" spans="1:10" ht="16" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -30295,7 +30305,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="20">
+    <row r="47" spans="1:10" ht="20">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -30308,7 +30318,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="16" customHeight="1">
+    <row r="48" spans="1:10" ht="16" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -31049,7 +31059,7 @@
         <v>32</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" ref="J84:J93" si="0">"**"&amp;A84&amp;"**, "&amp;IF(ISBLANK(E84),"","Op. "&amp;E84&amp;", ")&amp;"FS "&amp;D84&amp;" ("&amp;F84&amp;")"</f>
+        <f t="shared" ref="J84:J93" si="1">"**"&amp;A84&amp;"**, "&amp;IF(ISBLANK(E84),"","Op. "&amp;E84&amp;", ")&amp;"FS "&amp;D84&amp;" ("&amp;F84&amp;")"</f>
         <v>**Suite for String Orchestra**, Op. 1, FS 6 (1888)</v>
       </c>
     </row>
@@ -31076,7 +31086,7 @@
         <v>33</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Symfonisk Rhapsodi**, FS 7 (1888)</v>
       </c>
     </row>
@@ -31103,7 +31113,7 @@
         <v>34</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Helios Overture**, Op. 17, FS 32 (1903)</v>
       </c>
     </row>
@@ -31134,7 +31144,7 @@
         <v>35</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Saga-Drøm**, Op. 39, FS 46 (1907–1908)</v>
       </c>
     </row>
@@ -31159,7 +31169,7 @@
         <v>1334</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Marseillaise (Rouget de Lisle)**, FS 403 (1909)</v>
       </c>
     </row>
@@ -31186,7 +31196,7 @@
         <v>36</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Ved en ung Kunstners Baare**, FS 58 (1910)</v>
       </c>
     </row>
@@ -31213,7 +31223,7 @@
         <v>37</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Nærmere Gud til dig**, FS 63 (1912)</v>
       </c>
     </row>
@@ -31242,7 +31252,7 @@
         <v>38</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Pan og Syrinx**, Op. 49, FS 87 (1918)</v>
       </c>
     </row>
@@ -31269,7 +31279,7 @@
         <v>39</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**En Fantasirejse til Færøerne**, FS 123 (1927)</v>
       </c>
     </row>
@@ -31296,7 +31306,7 @@
         <v>40</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>**Bøhmisk-dansk Folketone**, FS 130 (1928)</v>
       </c>
     </row>
@@ -32470,7 +32480,7 @@
         <v>26</v>
       </c>
       <c r="J164" t="str">
-        <f t="shared" ref="J164:J168" si="1">"**"&amp;A164&amp;"**, "&amp;IF(ISBLANK(E164),"","Op. "&amp;E164&amp;", ")&amp;"FS "&amp;D164&amp;" ("&amp;F164&amp;")"</f>
+        <f t="shared" ref="J164:J168" si="2">"**"&amp;A164&amp;"**, "&amp;IF(ISBLANK(E164),"","Op. "&amp;E164&amp;", ")&amp;"FS "&amp;D164&amp;" ("&amp;F164&amp;")"</f>
         <v>**Symphony No. 2**, Op. 16, FS 29 (1901–1902)</v>
       </c>
     </row>
@@ -32499,7 +32509,7 @@
         <v>27</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>**Symphony No. 3**, Op. 27, FS 60 (1910–1911)</v>
       </c>
     </row>
@@ -32528,7 +32538,7 @@
         <v>28</v>
       </c>
       <c r="J166" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>**Symphony No. 4**, Op. 29, FS 76 (1914–1916)</v>
       </c>
     </row>
@@ -32555,7 +32565,7 @@
         <v>29</v>
       </c>
       <c r="J167" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>**Symphony No. 5**, Op. 50, FS 97 (1921–1922)</v>
       </c>
     </row>
@@ -32582,7 +32592,7 @@
         <v>30</v>
       </c>
       <c r="J168" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>**Symphony No. 6**, FS 116 (1924–1925)</v>
       </c>
     </row>
